--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema4b-Dcbld2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema4b-Dcbld2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.748197</v>
+        <v>0.4458276666666667</v>
       </c>
       <c r="H2">
-        <v>5.244591</v>
+        <v>1.337483</v>
       </c>
       <c r="I2">
-        <v>0.234333233099101</v>
+        <v>0.07239890305200847</v>
       </c>
       <c r="J2">
-        <v>0.234333233099101</v>
+        <v>0.07239890305200847</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.705367</v>
+        <v>5.197052666666667</v>
       </c>
       <c r="N2">
-        <v>14.116101</v>
+        <v>15.591158</v>
       </c>
       <c r="O2">
-        <v>0.08150174587488268</v>
+        <v>0.08925807602505774</v>
       </c>
       <c r="P2">
-        <v>0.08150174587488269</v>
+        <v>0.08925807602505774</v>
       </c>
       <c r="Q2">
-        <v>8.225908473299</v>
+        <v>2.316989863923778</v>
       </c>
       <c r="R2">
-        <v>74.033176259691</v>
+        <v>20.852908775314</v>
       </c>
       <c r="S2">
-        <v>0.01909856761408258</v>
+        <v>0.006462186792746957</v>
       </c>
       <c r="T2">
-        <v>0.01909856761408258</v>
+        <v>0.006462186792746957</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.748197</v>
+        <v>0.4458276666666667</v>
       </c>
       <c r="H3">
-        <v>5.244591</v>
+        <v>1.337483</v>
       </c>
       <c r="I3">
-        <v>0.234333233099101</v>
+        <v>0.07239890305200847</v>
       </c>
       <c r="J3">
-        <v>0.234333233099101</v>
+        <v>0.07239890305200847</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>117.398926</v>
       </c>
       <c r="O3">
-        <v>0.6778229649133395</v>
+        <v>0.6720990360156781</v>
       </c>
       <c r="P3">
-        <v>0.6778229649133396</v>
+        <v>0.6720990360156781</v>
       </c>
       <c r="Q3">
-        <v>68.41215007880733</v>
+        <v>17.44656308258422</v>
       </c>
       <c r="R3">
-        <v>615.7093507092659</v>
+        <v>157.019067743258</v>
       </c>
       <c r="S3">
-        <v>0.1588364468369614</v>
+        <v>0.04865923294984743</v>
       </c>
       <c r="T3">
-        <v>0.1588364468369613</v>
+        <v>0.04865923294984743</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.748197</v>
+        <v>0.4458276666666667</v>
       </c>
       <c r="H4">
-        <v>5.244591</v>
+        <v>1.337483</v>
       </c>
       <c r="I4">
-        <v>0.234333233099101</v>
+        <v>0.07239890305200847</v>
       </c>
       <c r="J4">
-        <v>0.234333233099101</v>
+        <v>0.07239890305200847</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>41.684956</v>
       </c>
       <c r="O4">
-        <v>0.2406752892117778</v>
+        <v>0.2386428879592642</v>
       </c>
       <c r="P4">
-        <v>0.2406752892117778</v>
+        <v>0.2386428879592642</v>
       </c>
       <c r="Q4">
-        <v>24.29117167477733</v>
+        <v>6.194768889527555</v>
       </c>
       <c r="R4">
-        <v>218.620545072996</v>
+        <v>55.752920005748</v>
       </c>
       <c r="S4">
-        <v>0.05639821864805709</v>
+        <v>0.01727748330941409</v>
       </c>
       <c r="T4">
-        <v>0.05639821864805707</v>
+        <v>0.01727748330941409</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>9.488423999999998</v>
       </c>
       <c r="I5">
-        <v>0.4239516623765522</v>
+        <v>0.5136151183172798</v>
       </c>
       <c r="J5">
-        <v>0.4239516623765521</v>
+        <v>0.5136151183172797</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.705367</v>
+        <v>5.197052666666667</v>
       </c>
       <c r="N5">
-        <v>14.116101</v>
+        <v>15.591158</v>
       </c>
       <c r="O5">
-        <v>0.08150174587488268</v>
+        <v>0.08925807602505774</v>
       </c>
       <c r="P5">
-        <v>0.08150174587488269</v>
+        <v>0.08925807602505774</v>
       </c>
       <c r="Q5">
-        <v>14.882172390536</v>
+        <v>16.43727975055467</v>
       </c>
       <c r="R5">
-        <v>133.939551514824</v>
+        <v>147.935517754992</v>
       </c>
       <c r="S5">
-        <v>0.03455280065024782</v>
+        <v>0.04584429727838279</v>
       </c>
       <c r="T5">
-        <v>0.03455280065024782</v>
+        <v>0.04584429727838277</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>9.488423999999998</v>
       </c>
       <c r="I6">
-        <v>0.4239516623765522</v>
+        <v>0.5136151183172798</v>
       </c>
       <c r="J6">
-        <v>0.4239516623765521</v>
+        <v>0.5136151183172797</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>117.398926</v>
       </c>
       <c r="O6">
-        <v>0.6778229649133395</v>
+        <v>0.6720990360156781</v>
       </c>
       <c r="P6">
-        <v>0.6778229649133396</v>
+        <v>0.6720990360156781</v>
       </c>
       <c r="Q6">
         <v>123.7700874480693</v>
@@ -818,10 +818,10 @@
         <v>1113.930787032624</v>
       </c>
       <c r="S6">
-        <v>0.2873641727720137</v>
+        <v>0.3452002259041222</v>
       </c>
       <c r="T6">
-        <v>0.2873641727720136</v>
+        <v>0.3452002259041221</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>9.488423999999998</v>
       </c>
       <c r="I7">
-        <v>0.4239516623765522</v>
+        <v>0.5136151183172798</v>
       </c>
       <c r="J7">
-        <v>0.4239516623765521</v>
+        <v>0.5136151183172797</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>41.684956</v>
       </c>
       <c r="O7">
-        <v>0.2406752892117778</v>
+        <v>0.2386428879592642</v>
       </c>
       <c r="P7">
-        <v>0.2406752892117778</v>
+        <v>0.2386428879592642</v>
       </c>
       <c r="Q7">
         <v>43.94717077214933</v>
@@ -880,10 +880,10 @@
         <v>395.5245369493439</v>
       </c>
       <c r="S7">
-        <v>0.1020346889542907</v>
+        <v>0.1225705951347748</v>
       </c>
       <c r="T7">
-        <v>0.1020346889542907</v>
+        <v>0.1225705951347748</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>7.647895</v>
       </c>
       <c r="I8">
-        <v>0.3417151045243469</v>
+        <v>0.4139859786307118</v>
       </c>
       <c r="J8">
-        <v>0.3417151045243469</v>
+        <v>0.4139859786307118</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.705367</v>
+        <v>5.197052666666667</v>
       </c>
       <c r="N8">
-        <v>14.116101</v>
+        <v>15.591158</v>
       </c>
       <c r="O8">
-        <v>0.08150174587488268</v>
+        <v>0.08925807602505774</v>
       </c>
       <c r="P8">
-        <v>0.08150174587488269</v>
+        <v>0.08925807602505774</v>
       </c>
       <c r="Q8">
-        <v>11.99538425082167</v>
+        <v>13.24883770137889</v>
       </c>
       <c r="R8">
-        <v>107.958458257395</v>
+        <v>119.23953931241</v>
       </c>
       <c r="S8">
-        <v>0.02785037761055229</v>
+        <v>0.036951591953928</v>
       </c>
       <c r="T8">
-        <v>0.0278503776105523</v>
+        <v>0.036951591953928</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>7.647895</v>
       </c>
       <c r="I9">
-        <v>0.3417151045243469</v>
+        <v>0.4139859786307118</v>
       </c>
       <c r="J9">
-        <v>0.3417151045243469</v>
+        <v>0.4139859786307118</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>117.398926</v>
       </c>
       <c r="O9">
-        <v>0.6778229649133395</v>
+        <v>0.6720990360156781</v>
       </c>
       <c r="P9">
-        <v>0.6778229649133396</v>
+        <v>0.6720990360156781</v>
       </c>
       <c r="Q9">
-        <v>99.76162879564109</v>
+        <v>99.76162879564112</v>
       </c>
       <c r="R9">
         <v>897.85465916077</v>
       </c>
       <c r="S9">
-        <v>0.2316223453043645</v>
+        <v>0.2782395771617085</v>
       </c>
       <c r="T9">
-        <v>0.2316223453043646</v>
+        <v>0.2782395771617085</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>7.647895</v>
       </c>
       <c r="I10">
-        <v>0.3417151045243469</v>
+        <v>0.4139859786307118</v>
       </c>
       <c r="J10">
-        <v>0.3417151045243469</v>
+        <v>0.4139859786307118</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>41.684956</v>
       </c>
       <c r="O10">
-        <v>0.2406752892117778</v>
+        <v>0.2386428879592642</v>
       </c>
       <c r="P10">
-        <v>0.2406752892117778</v>
+        <v>0.2386428879592642</v>
       </c>
       <c r="Q10">
         <v>35.42246295195778</v>
@@ -1066,10 +1066,10 @@
         <v>318.80216656762</v>
       </c>
       <c r="S10">
-        <v>0.08224238160943008</v>
+        <v>0.09879480951507531</v>
       </c>
       <c r="T10">
-        <v>0.08224238160943008</v>
+        <v>0.09879480951507531</v>
       </c>
     </row>
   </sheetData>
